--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-457473.6090036586</v>
+        <v>-459361.1905200605</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>287.7483405382863</v>
       </c>
       <c r="F2" t="n">
-        <v>378.4326166767232</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.7775259900117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>112.1710762681679</v>
       </c>
       <c r="G5" t="n">
-        <v>378.1699711250221</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>70.63993372640985</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>9.220846587376222</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>341.9790515334591</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>7.619232405193561</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>196.7218456862864</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>33.68688488030543</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>59.01585011841195</v>
       </c>
       <c r="W13" t="n">
-        <v>254.3897858997038</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1658,7 +1658,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385028</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>112.9511380303077</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>230.7201457371592</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>29.3220157029455</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274076</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,19 +2290,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>267.2733003323353</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>146.278729911946</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>98.54560905530671</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>253.1488561805829</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>27.92687787541515</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533804</v>
+        <v>34.54225047951878</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965544</v>
+        <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801226</v>
+        <v>91.2307060180122</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437433</v>
+        <v>90.21779139437427</v>
       </c>
       <c r="G31" t="n">
-        <v>6.749002612113467</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897916</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.215988835715</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274088</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051948</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3123,10 +3123,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9013320701445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274088</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3360,10 +3360,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262922</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9013320701445</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898712</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329079</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
       </c>
       <c r="T37" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014446</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898712</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857165</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1194.175505447095</v>
+        <v>1327.013560149308</v>
       </c>
       <c r="C2" t="n">
-        <v>1194.175505447095</v>
+        <v>1327.013560149308</v>
       </c>
       <c r="D2" t="n">
-        <v>835.9098068403443</v>
+        <v>1327.013560149308</v>
       </c>
       <c r="E2" t="n">
-        <v>450.1215542421001</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>2344.380435748108</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X2" t="n">
-        <v>1970.914677487028</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y2" t="n">
-        <v>1580.775345511217</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4443,7 +4443,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
         <v>53.94298182036445</v>
@@ -4522,16 +4522,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7222632714563</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1215.881273373638</v>
+        <v>1667.156396867425</v>
       </c>
       <c r="C5" t="n">
-        <v>846.9187564332267</v>
+        <v>1298.193879927013</v>
       </c>
       <c r="D5" t="n">
-        <v>846.9187564332267</v>
+        <v>1298.193879927013</v>
       </c>
       <c r="E5" t="n">
-        <v>846.9187564332267</v>
+        <v>912.4056273287686</v>
       </c>
       <c r="F5" t="n">
-        <v>435.9328516436191</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.086203674652</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X5" t="n">
-        <v>1992.620445413572</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y5" t="n">
-        <v>1602.48111343776</v>
+        <v>1667.156396867425</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>338.1849863041093</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>352.6741383092202</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>352.6741383092202</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>409.5384547146243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1679.782215419423</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="C8" t="n">
-        <v>1310.819698479011</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>952.5539998722606</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>566.7657472740163</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4799,7 +4799,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4808,46 +4808,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2513.275408983712</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2513.275408983712</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.387305656314</v>
+        <v>2182.212521640141</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.387305656314</v>
+        <v>2182.212521640141</v>
       </c>
       <c r="X8" t="n">
-        <v>2069.921547395234</v>
+        <v>1808.746763379062</v>
       </c>
       <c r="Y8" t="n">
-        <v>1679.782215419423</v>
+        <v>1808.746763379062</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4993,19 +4993,19 @@
         <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>529.4200491697815</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>404.9282174162494</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>404.9282174162494</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5030,7 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5042,22 +5042,22 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>415.8104215925219</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C13" t="n">
-        <v>415.8104215925219</v>
+        <v>860.7301020851613</v>
       </c>
       <c r="D13" t="n">
-        <v>415.8104215925219</v>
+        <v>710.6134626728256</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
         <v>415.8104215925219</v>
@@ -5200,49 +5200,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688088</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.497233179938</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471208</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473456</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262962</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.210845262962</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>1075.210845262962</v>
+        <v>1439.304300741325</v>
       </c>
       <c r="W13" t="n">
-        <v>818.2514655662917</v>
+        <v>1439.304300741325</v>
       </c>
       <c r="X13" t="n">
-        <v>818.2514655662917</v>
+        <v>1211.314749843308</v>
       </c>
       <c r="Y13" t="n">
-        <v>597.4588864227617</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="14">
@@ -5261,13 +5261,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822463</v>
@@ -5276,28 +5276,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5355,25 +5355,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>562.3990000507113</v>
+        <v>788.7865112929638</v>
       </c>
       <c r="C16" t="n">
-        <v>562.3990000507113</v>
+        <v>619.850328365057</v>
       </c>
       <c r="D16" t="n">
-        <v>412.2823606383756</v>
+        <v>469.7336889527212</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>469.7336889527212</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>322.8437414548108</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>322.8437414548108</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028587</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1265.865618298146</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>1011.181130092259</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W16" t="n">
-        <v>1011.181130092259</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X16" t="n">
-        <v>783.1915791942414</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="Y16" t="n">
-        <v>562.3990000507113</v>
+        <v>788.7865112929638</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
@@ -5510,55 +5510,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V19" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550792</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018333</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>441.9005583181187</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>441.9005583181187</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5747,7 +5747,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5847,10 +5847,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.4452354807078</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>415.5090525528009</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404651</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5938,22 +5938,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1075.21084526296</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>1075.21084526296</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W22" t="n">
-        <v>805.2378146242379</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X22" t="n">
-        <v>805.2378146242379</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>584.4452354807078</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,37 +5963,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701563</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300437</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>528.1058742183019</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.169691290395</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.169691290395</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387593</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011508</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>999.1715090855023</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>709.7543390485416</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>709.7543390485416</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>709.7543390485416</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028581</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028581</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,7 +6388,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471194</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U28" t="n">
-        <v>1019.424940013486</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V28" t="n">
-        <v>764.7404518075995</v>
+        <v>1047.001877712037</v>
       </c>
       <c r="W28" t="n">
-        <v>475.3232817706389</v>
+        <v>1047.001877712037</v>
       </c>
       <c r="X28" t="n">
-        <v>247.3337308726216</v>
+        <v>819.0123268140194</v>
       </c>
       <c r="Y28" t="n">
-        <v>247.3337308726216</v>
+        <v>598.2197476704893</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6476,22 +6476,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>494.8466681110201</v>
+        <v>750.8748194215256</v>
       </c>
       <c r="C31" t="n">
-        <v>381.6713504644838</v>
+        <v>637.6995017749894</v>
       </c>
       <c r="D31" t="n">
-        <v>287.3155763335187</v>
+        <v>543.3437276440243</v>
       </c>
       <c r="E31" t="n">
-        <v>195.1633480324962</v>
+        <v>451.1914993430019</v>
       </c>
       <c r="F31" t="n">
-        <v>104.0342658159564</v>
+        <v>360.0624171264624</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6479607276537</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933499</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667505</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962047</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252996</v>
+        <v>1791.966918252997</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323873</v>
+        <v>1623.942368323874</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818801</v>
+        <v>1390.574594818802</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894285</v>
+        <v>1191.650971894286</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386953</v>
+        <v>957.9946671386963</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220486</v>
+        <v>785.7659815220496</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598892</v>
+        <v>785.7659815220496</v>
       </c>
     </row>
     <row r="32">
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514073</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643321</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899123</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207826</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014289</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028577</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126479</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571603</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636239</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643585</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307617</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526314</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963125</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278839</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860495</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6923,49 +6923,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822464</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619125</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -6990,52 +6990,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.538293612648</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571604</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.193690363624</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643585</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307617</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526314</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963125</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278839</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108325</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7096,49 +7096,49 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045202</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,64 +7157,64 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,19 +7248,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636247</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7348,22 +7348,22 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859416</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7476,25 +7476,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643586</v>
@@ -7506,10 +7506,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,61 +7543,61 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U43" t="n">
         <v>1489.892037025262</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045204</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010313</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506718</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083198</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,28 +7828,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045201</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360586</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>327.4218609627882</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -9003,16 +9003,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>253.7371603504736</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445217</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298293</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720735</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>306.1147370139949</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208097</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,13 +10592,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208097</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208072</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>193.1217932054161</v>
       </c>
       <c r="W13" t="n">
-        <v>32.1332124368872</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>35.96269033722841</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,22 +23701,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>55.51720666141813</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23896,13 +23896,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>117.1119469436237</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,7 +23941,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24178,19 +24178,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>19.24969800425572</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>79.43092547709117</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338569</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>153.5920342685213</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,25 +24649,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>33.08849621799445</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>224.2107654484128</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>90.08647307386154</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>104.5413092227072</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897921</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571507</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523587</v>
+        <v>54.7610957752358</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1160664.664191674</v>
+        <v>1160664.664191673</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1160664.664191674</v>
+        <v>1160664.664191673</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1160664.664191674</v>
+        <v>1160664.664191673</v>
       </c>
     </row>
     <row r="11">
@@ -26323,7 +26323,7 @@
         <v>215065.9828557398</v>
       </c>
       <c r="F2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="G2" t="n">
         <v>215065.9828557398</v>
@@ -26332,7 +26332,7 @@
         <v>215065.9828557398</v>
       </c>
       <c r="I2" t="n">
-        <v>215065.9828557398</v>
+        <v>215065.9828557399</v>
       </c>
       <c r="J2" t="n">
         <v>215065.9828557399</v>
@@ -26341,13 +26341,13 @@
         <v>223752.1755398986</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.4867126782</v>
       </c>
       <c r="M2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.4867126782</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
         <v>225786.4867126781</v>
@@ -26384,28 +26384,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.567329602243263e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284554</v>
+        <v>44162.60530284546</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086615</v>
+        <v>10342.90680086691</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338375</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>2.810181740642292e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028455</v>
+        <v>44162.60530284559</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007506</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007443</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007456</v>
+        <v>7916.731656007496</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007457</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007414</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020397</v>
+        <v>26081.35417020399</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732817</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732799</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732803</v>
+        <v>30335.51889732795</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732803</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26491,22 +26491,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002532</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-594957.5192811968</v>
       </c>
       <c r="C6" t="n">
+        <v>-4989.640066652326</v>
+      </c>
+      <c r="D6" t="n">
         <v>-4989.640066652268</v>
       </c>
-      <c r="D6" t="n">
-        <v>-4989.640066652311</v>
-      </c>
       <c r="E6" t="n">
-        <v>-409998.1112258806</v>
+        <v>-410095.5703518526</v>
       </c>
       <c r="F6" t="n">
-        <v>115161.9252510158</v>
+        <v>115064.4661250436</v>
       </c>
       <c r="G6" t="n">
-        <v>115161.9252510157</v>
+        <v>115064.4661250435</v>
       </c>
       <c r="H6" t="n">
-        <v>115161.9252510157</v>
+        <v>115064.4661250435</v>
       </c>
       <c r="I6" t="n">
-        <v>115161.9252510157</v>
+        <v>115064.4661250433</v>
       </c>
       <c r="J6" t="n">
-        <v>-61261.29394157707</v>
+        <v>-61358.75306754942</v>
       </c>
       <c r="K6" t="n">
-        <v>56880.00753662629</v>
+        <v>56861.513798692</v>
       </c>
       <c r="L6" t="n">
-        <v>87392.95519445845</v>
+        <v>87392.95519445791</v>
       </c>
       <c r="M6" t="n">
-        <v>-37065.15323851273</v>
+        <v>-37065.15323851245</v>
       </c>
       <c r="N6" t="n">
-        <v>97735.86199532446</v>
+        <v>97735.86199532489</v>
       </c>
       <c r="O6" t="n">
-        <v>97735.86199532458</v>
+        <v>97735.86199532477</v>
       </c>
       <c r="P6" t="n">
-        <v>53573.25669247929</v>
+        <v>53573.25669247918</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26756,22 +26756,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
+        <v>830.3824054541006</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="N3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054540994</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054540994</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,13 +26811,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253572</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108379</v>
+        <v>12.92863350108364</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855687</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26993,10 +26993,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990187</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>94.18202953397548</v>
       </c>
       <c r="F2" t="n">
-        <v>28.44342906498821</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>51.04847948014722</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27594,16 +27594,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>209.8071273620831</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27622,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>294.7049694735436</v>
       </c>
       <c r="G5" t="n">
-        <v>35.61419889577286</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,7 +27670,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>96.60688737221798</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>242.9167967364518</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>64.89699420825229</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27901,16 +27901,16 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>208.8290879524642</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>89.5600285556913</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>218.4507584435226</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28272,7 +28272,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.637090463191271e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855691</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="32">
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>4.121147867408581e-12</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,37 +32947,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,37 +33184,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33290,7 +33290,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443613</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444941</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.696754517665</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961201</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041483</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304434</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565512</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.647069592718</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.452637254088</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946987</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647492</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104641</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562942</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.267057658035489</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386724</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127058</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215732</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622979</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358981</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724841</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813457</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855522</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458546</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710954</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677461</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361482</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298625</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557932</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196122</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171317</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263748</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469071</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.387743223569</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337663</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336898</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892239</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351806</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443613</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444941</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.696754517665</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961201</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041483</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304434</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565512</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.647069592718</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.452637254088</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946987</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647492</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446476</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104641</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562942</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.267057658035489</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354101</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386724</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127058</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215732</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622979</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358981</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724841</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813457</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855522</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458546</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710954</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677461</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361482</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
-        <v>0.117506944168033</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081163</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990344</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298625</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822382</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557932</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196122</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171317</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263748</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.652223606563</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469071</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.387743223569</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337663</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336898</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892239</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351806</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444943</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304438</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565517</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927184</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540884</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562943</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127062</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622981</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358983</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724844</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.536285481346</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855524</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095117</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677463</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361487</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,43 +34047,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298628</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557933</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196123</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171318</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469072</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337667</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892243</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351812</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
@@ -35012,19 +35012,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>365.2844632307148</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299122</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>564.1615374009399</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980129</v>
@@ -35741,10 +35741,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415077</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>555.3724419700194</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412245</v>
+        <v>67.71102679412253</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084856</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491598</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043168</v>
+        <v>94.42895660043176</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415076</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303325</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109066</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.329650222111</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081113</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951466</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109119</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502044</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349788</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953153</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005175</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560239</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504658</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980124</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411077</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523341</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.090320520923</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686852</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520613</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595511</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352441</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502433</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015153</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415076</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303325</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109066</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.329650222111</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081113</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951526</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109119</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502044</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349788</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953153</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005175</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560239</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504658</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980124</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411077</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523341</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.090320520923</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686852</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520613</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595511</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095691</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352441</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502433</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414413</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015153</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221115</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081116</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.154607095147</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109121</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349802</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005177</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.363702241108</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523318</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209231</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686861</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37953,7 +37953,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
